--- a/Averaged Data.xlsx
+++ b/Averaged Data.xlsx
@@ -516,7 +516,7 @@
         <v>0.026375</v>
       </c>
       <c r="E3" t="n">
-        <v>190002.5</v>
+        <v>119</v>
       </c>
       <c r="F3" t="n">
         <v>0.39</v>

--- a/Averaged Data.xlsx
+++ b/Averaged Data.xlsx
@@ -480,12 +480,14 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14.32809523809524</v>
+        <v>13.28122448979592</v>
       </c>
       <c r="D2" t="n">
-        <v>952.3333333333334</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>820.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
       <c r="F2" t="n">
         <v>0.44</v>
       </c>
@@ -513,13 +515,13 @@
         <v>85.176</v>
       </c>
       <c r="D3" t="n">
-        <v>0.026375</v>
+        <v>0.02425</v>
       </c>
       <c r="E3" t="n">
         <v>119</v>
       </c>
       <c r="F3" t="n">
-        <v>0.39</v>
+        <v>0.375</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -541,10 +543,14 @@
           <t>Delegated Proof of Stake</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>4416.666666666667</v>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.33</v>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>['generally possess a reduced number of decentralised nodes and are thus subject to fewer security challenges ']</t>
@@ -566,7 +572,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23754.66666666667</v>
+        <v>19441</v>
       </c>
       <c r="D5" t="n">
         <v>0.001</v>
@@ -574,7 +580,9 @@
       <c r="E5" t="n">
         <v>24</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.33</v>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
@@ -620,7 +628,9 @@
       <c r="E7" t="n">
         <v>22</v>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.33</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -634,7 +644,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.521</v>
+        <v>1133.507</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
@@ -654,11 +664,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7350</v>
+        <v>11500</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.23</v>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>['high scalability, low latency, and resource efficiency']</t>
@@ -680,12 +692,12 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>129100</v>
+        <v>87400</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>0.35</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
